--- a/Client/ExcelConfig/Excel/LevelupMRocket.xlsx
+++ b/Client/ExcelConfig/Excel/LevelupMRocket.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22500" windowHeight="12195"/>
+    <workbookView windowWidth="23955" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -230,25 +230,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,157 +410,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,10 +527,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -539,16 +539,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -560,52 +560,52 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -614,58 +614,58 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1020,10 +1020,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B4">
         <v>1000</v>
@@ -1116,15 +1116,15 @@
         <v>30</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="C5">
         <v>120</v>
@@ -1141,13 +1141,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6">
         <v>1200</v>
       </c>
       <c r="C6">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="D6">
         <v>678</v>
@@ -1161,7 +1161,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7">
         <v>1200</v>
@@ -1173,7 +1173,7 @@
         <v>678</v>
       </c>
       <c r="E7">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1181,10 +1181,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="C8">
         <v>180</v>
@@ -1201,13 +1201,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9">
         <v>1400</v>
       </c>
       <c r="C9">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="D9">
         <v>678</v>
@@ -1221,7 +1221,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10">
         <v>1400</v>
@@ -1233,7 +1233,7 @@
         <v>678</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1241,10 +1241,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="C11">
         <v>240</v>
@@ -1261,13 +1261,13 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12">
         <v>1600</v>
       </c>
       <c r="C12">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="D12">
         <v>678</v>
@@ -1281,7 +1281,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13">
         <v>1600</v>
@@ -1293,7 +1293,7 @@
         <v>678</v>
       </c>
       <c r="E13">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1301,10 +1301,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="C14">
         <v>300</v>
@@ -1316,6 +1316,26 @@
         <v>45</v>
       </c>
       <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>1800</v>
+      </c>
+      <c r="C15">
+        <v>300</v>
+      </c>
+      <c r="D15">
+        <v>678</v>
+      </c>
+      <c r="E15">
+        <v>45</v>
+      </c>
+      <c r="F15">
         <v>1</v>
       </c>
     </row>
